--- a/output/sites/table_summary_sites_nut_total_estimates.xlsx
+++ b/output/sites/table_summary_sites_nut_total_estimates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">scat_compo</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5% quantile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5% quantile</t>
   </si>
   <si>
     <t xml:space="preserve">min</t>
@@ -484,22 +490,22 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9571</v>
+        <v>2.1878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2411</v>
+        <v>0.2586</v>
       </c>
       <c r="G3" t="n">
-        <v>0.106</v>
+        <v>0.1144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0462</v>
+        <v>0.0515</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0178</v>
+        <v>0.0194</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0016</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +522,22 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>3.3615</v>
+        <v>3.1213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3605</v>
+        <v>0.3466</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1754</v>
+        <v>0.1606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0763</v>
+        <v>0.0719</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0285</v>
+        <v>0.0265</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0027</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="5">
@@ -542,28 +548,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="n">
-        <v>7.9221</v>
+        <v>1.9571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9067</v>
+        <v>0.2411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4125</v>
+        <v>0.106</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1848</v>
+        <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0687</v>
+        <v>0.0178</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0064</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="6">
@@ -574,28 +580,28 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>5.6126</v>
+        <v>3.3615</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7135</v>
+        <v>0.3605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3213</v>
+        <v>0.1754</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1354</v>
+        <v>0.0763</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0539</v>
+        <v>0.0285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0047</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="7">
@@ -606,28 +612,28 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>9.9626</v>
+        <v>7.9221</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0745</v>
+        <v>0.9067</v>
       </c>
       <c r="G7" t="n">
-        <v>0.522</v>
+        <v>0.4125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.233</v>
+        <v>0.1848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0841</v>
+        <v>0.0687</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="8">
@@ -638,28 +644,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10.5633</v>
+        <v>6.567</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2091</v>
+        <v>0.7768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.55</v>
+        <v>0.3451</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2464</v>
+        <v>0.1546</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0916</v>
+        <v>0.0585</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0086</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="9">
@@ -670,28 +676,28 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5697</v>
+        <v>9.3249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9546</v>
+        <v>1.0385</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4276</v>
+        <v>0.4805</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1817</v>
+        <v>0.2157</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0718</v>
+        <v>0.0798</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0063</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="10">
@@ -702,28 +708,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>13.2454</v>
+        <v>5.6126</v>
       </c>
       <c r="F10" t="n">
-        <v>1.429</v>
+        <v>0.7135</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6974</v>
+        <v>0.3213</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3088</v>
+        <v>0.1354</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1126</v>
+        <v>0.0539</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0107</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +740,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>9.9626</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>1.0745</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0.522</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>0.233</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>0.0841</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="12">
@@ -766,28 +772,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>10.5633</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>1.2091</v>
       </c>
       <c r="G12" t="n">
-        <v>75</v>
+        <v>0.55</v>
       </c>
       <c r="H12" t="n">
-        <v>75</v>
+        <v>0.2464</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>0.0916</v>
       </c>
       <c r="J12" t="n">
-        <v>74</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="13">
@@ -795,31 +801,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0726</v>
+        <v>8.7627</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3516</v>
+        <v>1.0383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1596</v>
+        <v>0.4609</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0717</v>
+        <v>0.2061</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0266</v>
+        <v>0.0779</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0025</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="14">
@@ -827,31 +833,31 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>2.4749</v>
+        <v>12.4136</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3185</v>
+        <v>1.3827</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1345</v>
+        <v>0.6422</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0602</v>
+        <v>0.2868</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0235</v>
+        <v>0.1061</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0021</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
@@ -859,31 +865,31 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>3.5971</v>
+        <v>7.5697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3905</v>
+        <v>0.9546</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1836</v>
+        <v>0.4276</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0845</v>
+        <v>0.1817</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03</v>
+        <v>0.0718</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0029</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="16">
@@ -891,31 +897,31 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>9.2187</v>
+        <v>13.2454</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0547</v>
+        <v>1.429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4788</v>
+        <v>0.6974</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2153</v>
+        <v>0.3088</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0798</v>
+        <v>0.1126</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0075</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="17">
@@ -923,31 +929,31 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>7.4963</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>0.968</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4052</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1794</v>
+        <v>25</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0702</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0063</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -955,31 +961,31 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>11.0216</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1604</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5601</v>
+        <v>75</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2559</v>
+        <v>75</v>
       </c>
       <c r="I18" t="n">
-        <v>0.092</v>
+        <v>75</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0089</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -987,31 +993,31 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>12.2914</v>
+        <v>3.0726</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4063</v>
+        <v>0.3516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6385</v>
+        <v>0.1596</v>
       </c>
       <c r="H19" t="n">
-        <v>0.287</v>
+        <v>0.0717</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1064</v>
+        <v>0.0266</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="20">
@@ -1019,31 +1025,31 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>9.9712</v>
+        <v>2.7216</v>
       </c>
       <c r="F20" t="n">
-        <v>1.2865</v>
+        <v>0.3297</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5398</v>
+        <v>0.1447</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2395</v>
+        <v>0.0649</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0937</v>
+        <v>0.0245</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0084</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="21">
@@ -1051,31 +1057,31 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6188</v>
+        <v>3.4302</v>
       </c>
       <c r="F21" t="n">
-        <v>1.5489</v>
+        <v>0.3735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7395</v>
+        <v>0.1749</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3404</v>
+        <v>0.0789</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1211</v>
+        <v>0.0288</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0119</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="22">
@@ -1083,31 +1089,31 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>2.4749</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>0.3185</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>0.1345</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>0.0602</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>0.0235</v>
       </c>
       <c r="J22" t="n">
-        <v>25</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="23">
@@ -1115,252 +1121,252 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>3.5971</v>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>0.3905</v>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>0.1836</v>
       </c>
       <c r="H23" t="n">
-        <v>75</v>
+        <v>0.0845</v>
       </c>
       <c r="I23" t="n">
-        <v>75</v>
+        <v>0.03</v>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>2.7733</v>
+        <v>9.2187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3481</v>
+        <v>1.0547</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1997</v>
+        <v>0.4788</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0533</v>
+        <v>0.2153</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0282</v>
+        <v>0.0798</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0023</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0192</v>
+        <v>8.213</v>
       </c>
       <c r="F25" t="n">
-        <v>0.281</v>
+        <v>0.9893</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1602</v>
+        <v>0.4361</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0414</v>
+        <v>0.1957</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0227</v>
+        <v>0.0737</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0017</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>3.6713</v>
+        <v>10.2298</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4171</v>
+        <v>1.1194</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2465</v>
+        <v>0.525</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0653</v>
+        <v>0.2349</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0353</v>
+        <v>0.0856</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0029</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
       <c r="E27" t="n">
-        <v>8.319</v>
+        <v>7.4963</v>
       </c>
       <c r="F27" t="n">
-        <v>1.044</v>
+        <v>0.968</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5993</v>
+        <v>0.4052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1597</v>
+        <v>0.1794</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0846</v>
+        <v>0.0702</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0068</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>6.1881</v>
+        <v>11.0216</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8502</v>
+        <v>1.1604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4822</v>
+        <v>0.5601</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1235</v>
+        <v>0.2559</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0672</v>
+        <v>0.092</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0051</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>10.5414</v>
+        <v>12.2914</v>
       </c>
       <c r="F29" t="n">
-        <v>1.2539</v>
+        <v>1.4063</v>
       </c>
       <c r="G29" t="n">
-        <v>0.749</v>
+        <v>0.6385</v>
       </c>
       <c r="H29" t="n">
-        <v>0.193</v>
+        <v>0.287</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1048</v>
+        <v>0.1064</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0084</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>11.0923</v>
+        <v>10.9707</v>
       </c>
       <c r="F30" t="n">
-        <v>1.3921</v>
+        <v>1.3228</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7991</v>
+        <v>0.5807</v>
       </c>
       <c r="H30" t="n">
-        <v>0.213</v>
+        <v>0.2607</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1128</v>
+        <v>0.0982</v>
       </c>
       <c r="J30" t="n">
         <v>0.009</v>
@@ -1368,481 +1374,1249 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>8.2303</v>
+        <v>13.6369</v>
       </c>
       <c r="F31" t="n">
-        <v>1.1312</v>
+        <v>1.4883</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6424</v>
+        <v>0.6984</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1654</v>
+        <v>0.3133</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0903</v>
+        <v>0.1142</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0068</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>14.0999</v>
+        <v>9.9712</v>
       </c>
       <c r="F32" t="n">
-        <v>1.6648</v>
+        <v>1.2865</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9914</v>
+        <v>0.5398</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2574</v>
+        <v>0.2395</v>
       </c>
       <c r="I32" t="n">
-        <v>0.14</v>
+        <v>0.0937</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0112</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>14.6188</v>
       </c>
       <c r="F33" t="n">
-        <v>25</v>
+        <v>1.5489</v>
       </c>
       <c r="G33" t="n">
-        <v>25</v>
+        <v>0.7395</v>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>0.3404</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>0.1211</v>
       </c>
       <c r="J33" t="n">
-        <v>26</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J34" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
       <c r="E35" t="n">
-        <v>2.92</v>
+        <v>75</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3013</v>
+        <v>75</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0922</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0807</v>
+        <v>75</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0208</v>
+        <v>75</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0024</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>2.376</v>
+        <v>2.7733</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2735</v>
+        <v>0.3481</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0814</v>
+        <v>0.1997</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0658</v>
+        <v>0.0533</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0185</v>
+        <v>0.0282</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>3.5952</v>
+        <v>2.2748</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3321</v>
+        <v>0.2978</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1078</v>
+        <v>0.1687</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0984</v>
+        <v>0.0448</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0236</v>
+        <v>0.0238</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0029</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>8.7663</v>
+        <v>3.2722</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9039</v>
+        <v>0.3977</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2768</v>
+        <v>0.2304</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2422</v>
+        <v>0.0617</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0625</v>
+        <v>0.0325</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0071</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" t="n">
-        <v>7.2627</v>
+        <v>2.0192</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8206</v>
+        <v>0.281</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2416</v>
+        <v>0.1602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1998</v>
+        <v>0.0414</v>
       </c>
       <c r="I39" t="n">
-        <v>0.055</v>
+        <v>0.0227</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>10.7596</v>
+        <v>3.6713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9937</v>
+        <v>0.4171</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3187</v>
+        <v>0.2465</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2928</v>
+        <v>0.0653</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0701</v>
+        <v>0.0353</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0086</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="n">
-        <v>11.6863</v>
+        <v>8.319</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2053</v>
+        <v>1.044</v>
       </c>
       <c r="G41" t="n">
-        <v>0.369</v>
+        <v>0.5993</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3229</v>
+        <v>0.1597</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0833</v>
+        <v>0.0846</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0095</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>9.6991</v>
+        <v>6.8152</v>
       </c>
       <c r="F42" t="n">
-        <v>1.1</v>
+        <v>0.8987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3238</v>
+        <v>0.5057</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2656</v>
+        <v>0.1344</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0737</v>
+        <v>0.0717</v>
       </c>
       <c r="J42" t="n">
-        <v>0.008</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>14.2913</v>
+        <v>9.7561</v>
       </c>
       <c r="F43" t="n">
-        <v>1.3253</v>
+        <v>1.1867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4261</v>
+        <v>0.6965</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3878</v>
+        <v>0.1854</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0935</v>
+        <v>0.0983</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0114</v>
+        <v>0.0079</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>6.1881</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>0.8502</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>0.4822</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>0.1235</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>0.0672</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.5414</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.2539</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0084</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.0923</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.3921</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7991</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.1051</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.1967</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.6761</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1793</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.0311</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.5845</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9245</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.2468</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1306</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.2303</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.1312</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.6424</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1654</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0903</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0068</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.0999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.6648</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9914</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>75</v>
+      </c>
+      <c r="F52" t="n">
+        <v>75</v>
+      </c>
+      <c r="G52" t="n">
+        <v>75</v>
+      </c>
+      <c r="H52" t="n">
+        <v>75</v>
+      </c>
+      <c r="I52" t="n">
+        <v>75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3013</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0807</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.5979</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0721</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3202</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0026</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0814</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0658</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.5952</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1078</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.7663</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9039</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.2768</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2422</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.7745</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8487</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.2162</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.7448</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9594</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3018</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.2681</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0671</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0079</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7.2627</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8206</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2416</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.1998</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.7596</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3187</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0086</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.6863</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.2053</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10.3848</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.1334</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.2893</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0777</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0085</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.9893</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.2773</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.4021</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0895</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0105</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E66" t="n">
+        <v>9.6991</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.2656</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.2913</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.3253</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.4261</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3878</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>25</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>25</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="E45" t="n">
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
         <v>75</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F69" t="n">
         <v>75</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G69" t="n">
         <v>75</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H69" t="n">
         <v>75</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I69" t="n">
         <v>75</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J69" t="n">
         <v>75</v>
       </c>
     </row>

--- a/output/sites/table_summary_sites_nut_total_estimates.xlsx
+++ b/output/sites/table_summary_sites_nut_total_estimates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">scat_compo</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -443,499 +446,547 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.6413</v>
+        <v>65.4711</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3023</v>
+        <v>4.9937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1375</v>
+        <v>0.5703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0616</v>
+        <v>0.2596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0229</v>
+        <v>0.1163</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0021</v>
+        <v>0.0432</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1878</v>
+        <v>57.7428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2586</v>
+        <v>4.3186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1144</v>
+        <v>0.5087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0515</v>
+        <v>0.2273</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0194</v>
+        <v>0.1019</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0018</v>
+        <v>0.0385</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1213</v>
+        <v>73.5528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3466</v>
+        <v>5.6788</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1606</v>
+        <v>0.6343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0719</v>
+        <v>0.2938</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0265</v>
+        <v>0.1317</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0025</v>
+        <v>0.0485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9571</v>
+        <v>53.6963</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2411</v>
+        <v>4.014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.106</v>
+        <v>0.483</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0462</v>
+        <v>0.2146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0178</v>
+        <v>0.0975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0016</v>
+        <v>0.0365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>3.3615</v>
+        <v>78.3006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3605</v>
+        <v>6.1945</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1754</v>
+        <v>0.6598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0763</v>
+        <v>0.3146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0285</v>
+        <v>0.1435</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0027</v>
+        <v>0.0512</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>7.9221</v>
+        <v>197.6058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9067</v>
+        <v>15.0641</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4125</v>
+        <v>1.721</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1848</v>
+        <v>0.7832</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0687</v>
+        <v>0.3511</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0064</v>
+        <v>0.1304</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>6.567</v>
+        <v>174.1799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7768</v>
+        <v>13.0258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3451</v>
+        <v>1.537</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1546</v>
+        <v>0.6877</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0585</v>
+        <v>0.3086</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0054</v>
+        <v>0.1164</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>9.3249</v>
+        <v>221.327</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0385</v>
+        <v>17.1456</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4805</v>
+        <v>1.9141</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2157</v>
+        <v>0.8798</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0798</v>
+        <v>0.3958</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0075</v>
+        <v>0.1461</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>5.6126</v>
+        <v>161.3031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7135</v>
+        <v>12.0706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3213</v>
+        <v>1.4618</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1354</v>
+        <v>0.658</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0539</v>
+        <v>0.2876</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0047</v>
+        <v>0.1105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="n">
-        <v>9.9626</v>
+        <v>235.3886</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0745</v>
+        <v>18.9503</v>
       </c>
       <c r="G11" t="n">
-        <v>0.522</v>
+        <v>2.0346</v>
       </c>
       <c r="H11" t="n">
-        <v>0.233</v>
+        <v>0.9621</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0841</v>
+        <v>0.434</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008</v>
+        <v>0.1519</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>10.5633</v>
+        <v>263.0769</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2091</v>
+        <v>20.0578</v>
       </c>
       <c r="G12" t="n">
-        <v>0.55</v>
+        <v>2.2913</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2464</v>
+        <v>1.0428</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0916</v>
+        <v>0.4674</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0086</v>
+        <v>0.1736</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>8.7627</v>
+        <v>231.7873</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0383</v>
+        <v>17.3424</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4609</v>
+        <v>2.048</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2061</v>
+        <v>0.9171</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0779</v>
+        <v>0.4099</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0072</v>
+        <v>0.1547</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>12.4136</v>
+        <v>294.6543</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3827</v>
+        <v>22.8418</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6422</v>
+        <v>2.5424</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2868</v>
+        <v>1.1719</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1061</v>
+        <v>0.5277</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01</v>
+        <v>0.1945</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>7.5697</v>
+        <v>214.9994</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9546</v>
+        <v>16.0846</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4276</v>
+        <v>1.9447</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1817</v>
+        <v>0.8726</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0718</v>
+        <v>0.3854</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0063</v>
+        <v>0.1473</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>13.2454</v>
+        <v>313.6892</v>
       </c>
       <c r="F16" t="n">
-        <v>1.429</v>
+        <v>24.9839</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6974</v>
+        <v>2.6898</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3088</v>
+        <v>1.2738</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1126</v>
+        <v>0.5774</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0107</v>
+        <v>0.2031</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -953,21 +1004,24 @@
         <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
         <v>75</v>
@@ -985,501 +1039,549 @@
         <v>75</v>
       </c>
       <c r="J18" t="n">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>3.0726</v>
+        <v>90.6728</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3516</v>
+        <v>6.9079</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1596</v>
+        <v>0.7902</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0717</v>
+        <v>0.3589</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0266</v>
+        <v>0.1612</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0025</v>
+        <v>0.0598</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7216</v>
+        <v>80.3278</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3297</v>
+        <v>6.0401</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1447</v>
+        <v>0.7098</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0649</v>
+        <v>0.3179</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0245</v>
+        <v>0.1411</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0022</v>
+        <v>0.0532</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>3.4302</v>
+        <v>101.0859</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3735</v>
+        <v>7.8101</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1749</v>
+        <v>0.8714</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0789</v>
+        <v>0.4028</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0288</v>
+        <v>0.1817</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0028</v>
+        <v>0.0667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>2.4749</v>
+        <v>75.6572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3185</v>
+        <v>5.5964</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1345</v>
+        <v>0.6733</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0602</v>
+        <v>0.2909</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0235</v>
+        <v>0.134</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0021</v>
+        <v>0.0495</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>3.5971</v>
+        <v>108.2337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3905</v>
+        <v>8.2763</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1836</v>
+        <v>0.9024</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0845</v>
+        <v>0.4239</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03</v>
+        <v>0.1901</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0029</v>
+        <v>0.0699</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0066</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>9.2187</v>
+        <v>273.4896</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0547</v>
+        <v>20.8462</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4788</v>
+        <v>2.3842</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2153</v>
+        <v>1.0831</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0798</v>
+        <v>0.4864</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0075</v>
+        <v>0.1804</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>8.213</v>
+        <v>242.0055</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9893</v>
+        <v>18.17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4361</v>
+        <v>2.1426</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1957</v>
+        <v>0.9599</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0737</v>
+        <v>0.426</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0068</v>
+        <v>0.161</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>10.2298</v>
+        <v>304.7545</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1194</v>
+        <v>23.6273</v>
       </c>
       <c r="G26" t="n">
-        <v>0.525</v>
+        <v>2.6308</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2349</v>
+        <v>1.2172</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0856</v>
+        <v>0.5469</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0083</v>
+        <v>0.2008</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>7.4963</v>
+        <v>228.1154</v>
       </c>
       <c r="F27" t="n">
-        <v>0.968</v>
+        <v>17.2619</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4052</v>
+        <v>2.041</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1794</v>
+        <v>0.8738</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0702</v>
+        <v>0.405</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0063</v>
+        <v>0.1513</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" t="n">
-        <v>11.0216</v>
+        <v>321.9887</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1604</v>
+        <v>24.8659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5601</v>
+        <v>2.6977</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2559</v>
+        <v>1.2707</v>
       </c>
       <c r="I28" t="n">
-        <v>0.092</v>
+        <v>0.575</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0089</v>
+        <v>0.2111</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>12.2914</v>
+        <v>364.1624</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4063</v>
+        <v>27.7541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6385</v>
+        <v>3.1744</v>
       </c>
       <c r="H29" t="n">
-        <v>0.287</v>
+        <v>1.442</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1064</v>
+        <v>0.6476</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01</v>
+        <v>0.2401</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>10.9707</v>
+        <v>322.0928</v>
       </c>
       <c r="F30" t="n">
-        <v>1.3228</v>
+        <v>24.2028</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5807</v>
+        <v>2.8541</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2607</v>
+        <v>1.2795</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0982</v>
+        <v>0.5673</v>
       </c>
       <c r="J30" t="n">
-        <v>0.009</v>
+        <v>0.2144</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>13.6369</v>
+        <v>405.2854</v>
       </c>
       <c r="F31" t="n">
-        <v>1.4883</v>
+        <v>31.3942</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6984</v>
+        <v>3.5011</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3133</v>
+        <v>1.6189</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1142</v>
+        <v>0.7295</v>
       </c>
       <c r="J31" t="n">
-        <v>0.011</v>
+        <v>0.2672</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>9.9712</v>
+        <v>303.7725</v>
       </c>
       <c r="F32" t="n">
-        <v>1.2865</v>
+        <v>22.9184</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5398</v>
+        <v>2.7273</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2395</v>
+        <v>1.1715</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0937</v>
+        <v>0.5401</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0084</v>
+        <v>0.2008</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.019</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>14.6188</v>
+        <v>430.2224</v>
       </c>
       <c r="F33" t="n">
-        <v>1.5489</v>
+        <v>33.1422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7395</v>
+        <v>3.6001</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3404</v>
+        <v>1.6917</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1211</v>
+        <v>0.765</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0119</v>
+        <v>0.2807</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
         <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
       </c>
       <c r="E34" t="n">
         <v>25</v>
@@ -1499,19 +1601,22 @@
       <c r="J34" t="n">
         <v>25</v>
       </c>
+      <c r="K34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
       </c>
       <c r="E35" t="n">
         <v>75</v>
@@ -1531,499 +1636,547 @@
       <c r="J35" t="n">
         <v>75</v>
       </c>
+      <c r="K35" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.7733</v>
+        <v>57.8013</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3481</v>
+        <v>5.2352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1997</v>
+        <v>0.6572</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0533</v>
+        <v>0.377</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0282</v>
+        <v>0.1005</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0023</v>
+        <v>0.0532</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0043</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>2.2748</v>
+        <v>50.4164</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2978</v>
+        <v>4.5273</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1687</v>
+        <v>0.5885</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0448</v>
+        <v>0.3351</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0238</v>
+        <v>0.0887</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0019</v>
+        <v>0.0475</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0037</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>3.2722</v>
+        <v>65.0824</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3977</v>
+        <v>5.9772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2304</v>
+        <v>0.7266</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0617</v>
+        <v>0.4212</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0325</v>
+        <v>0.1127</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0026</v>
+        <v>0.0597</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>2.0192</v>
+        <v>46.7564</v>
       </c>
       <c r="F39" t="n">
-        <v>0.281</v>
+        <v>3.9667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1602</v>
+        <v>0.5721</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0414</v>
+        <v>0.3218</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0227</v>
+        <v>0.083</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0017</v>
+        <v>0.0455</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>3.6713</v>
+        <v>71.9813</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4171</v>
+        <v>6.2577</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2465</v>
+        <v>0.7496</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0653</v>
+        <v>0.4387</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0353</v>
+        <v>0.121</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0029</v>
+        <v>0.0661</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0051</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>8.319</v>
+        <v>174.3593</v>
       </c>
       <c r="F41" t="n">
-        <v>1.044</v>
+        <v>15.7905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5993</v>
+        <v>1.9838</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1597</v>
+        <v>1.1375</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0846</v>
+        <v>0.3034</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0068</v>
+        <v>0.1607</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>6.8152</v>
+        <v>152.3662</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8987</v>
+        <v>13.7129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5057</v>
+        <v>1.7802</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1344</v>
+        <v>1.0105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0717</v>
+        <v>0.2679</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0056</v>
+        <v>0.1427</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>9.7561</v>
+        <v>196.9432</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1867</v>
+        <v>18.0245</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6965</v>
+        <v>2.1883</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1854</v>
+        <v>1.272</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0983</v>
+        <v>0.3391</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0079</v>
+        <v>0.1793</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0146</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>6.1881</v>
+        <v>140.2027</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8502</v>
+        <v>11.98</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4822</v>
+        <v>1.6737</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1235</v>
+        <v>0.9479</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0672</v>
+        <v>0.2527</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0051</v>
+        <v>0.1355</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
       <c r="E45" t="n">
-        <v>10.5414</v>
+        <v>214.0117</v>
       </c>
       <c r="F45" t="n">
-        <v>1.2539</v>
+        <v>19.0845</v>
       </c>
       <c r="G45" t="n">
-        <v>0.749</v>
+        <v>2.2688</v>
       </c>
       <c r="H45" t="n">
-        <v>0.193</v>
+        <v>1.2976</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1048</v>
+        <v>0.3651</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0084</v>
+        <v>0.1913</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>11.0923</v>
+        <v>232.1606</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3921</v>
+        <v>21.0257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7991</v>
+        <v>2.6409</v>
       </c>
       <c r="H46" t="n">
-        <v>0.213</v>
+        <v>1.5144</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1128</v>
+        <v>0.4039</v>
       </c>
       <c r="J46" t="n">
-        <v>0.009</v>
+        <v>0.2139</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>9.1051</v>
+        <v>203.0145</v>
       </c>
       <c r="F47" t="n">
-        <v>1.1967</v>
+        <v>18.2678</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6761</v>
+        <v>2.3741</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1793</v>
+        <v>1.3478</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0956</v>
+        <v>0.3572</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0075</v>
+        <v>0.1904</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>13.0311</v>
+        <v>261.2223</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5845</v>
+        <v>23.9552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9245</v>
+        <v>2.9107</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2468</v>
+        <v>1.6933</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1306</v>
+        <v>0.4506</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0105</v>
+        <v>0.2386</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0195</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>8.2303</v>
+        <v>186.959</v>
       </c>
       <c r="F49" t="n">
-        <v>1.1312</v>
+        <v>15.9466</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6424</v>
+        <v>2.2477</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1654</v>
+        <v>1.2697</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0903</v>
+        <v>0.3369</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0068</v>
+        <v>0.1812</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>14.0999</v>
+        <v>285.993</v>
       </c>
       <c r="F50" t="n">
-        <v>1.6648</v>
+        <v>25.2891</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9914</v>
+        <v>3.0148</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2574</v>
+        <v>1.7327</v>
       </c>
       <c r="I50" t="n">
-        <v>0.14</v>
+        <v>0.4861</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0112</v>
+        <v>0.2573</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0204</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
         <v>25</v>
@@ -2041,21 +2194,24 @@
         <v>25</v>
       </c>
       <c r="J51" t="n">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" t="n">
         <v>75</v>
@@ -2073,501 +2229,549 @@
         <v>75</v>
       </c>
       <c r="J52" t="n">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>2.92</v>
+        <v>100.8842</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3013</v>
+        <v>6.5674</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0922</v>
+        <v>0.6779</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0807</v>
+        <v>0.2072</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0208</v>
+        <v>0.1813</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0024</v>
+        <v>0.0468</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0053</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>2.5979</v>
+        <v>89.3698</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2819</v>
+        <v>5.7345</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0839</v>
+        <v>0.6096</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0721</v>
+        <v>0.1826</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0194</v>
+        <v>0.1579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0021</v>
+        <v>0.0417</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0047</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>3.259</v>
+        <v>112.5219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3202</v>
+        <v>7.4687</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1012</v>
+        <v>0.7499</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0901</v>
+        <v>0.2331</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0225</v>
+        <v>0.2053</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0026</v>
+        <v>0.0522</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>2.376</v>
+        <v>84.3009</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2735</v>
+        <v>5.3251</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0814</v>
+        <v>0.5861</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0658</v>
+        <v>0.1731</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0185</v>
+        <v>0.1495</v>
       </c>
       <c r="J56" t="n">
-        <v>0.002</v>
+        <v>0.0394</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0044</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>3.5952</v>
+        <v>120.8764</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3321</v>
+        <v>7.8803</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1078</v>
+        <v>0.7865</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0984</v>
+        <v>0.246</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0236</v>
+        <v>0.2162</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0029</v>
+        <v>0.0547</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0065</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>8.7663</v>
+        <v>304.4302</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9039</v>
+        <v>19.8177</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2768</v>
+        <v>2.0459</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2422</v>
+        <v>0.6251</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0625</v>
+        <v>0.547</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0071</v>
+        <v>0.1413</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0161</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>7.7745</v>
+        <v>269.2718</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8487</v>
+        <v>17.3291</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2527</v>
+        <v>1.84</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2162</v>
+        <v>0.5521</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0582</v>
+        <v>0.4796</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0064</v>
+        <v>0.1259</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0141</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>9.7448</v>
+        <v>338.6791</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9594</v>
+        <v>22.4914</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3018</v>
+        <v>2.259</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2681</v>
+        <v>0.7022</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0671</v>
+        <v>0.619</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0079</v>
+        <v>0.1571</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0182</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>7.2627</v>
+        <v>256.881</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8206</v>
+        <v>16.1694</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2416</v>
+        <v>1.7603</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1998</v>
+        <v>0.5243</v>
       </c>
       <c r="I61" t="n">
-        <v>0.055</v>
+        <v>0.4504</v>
       </c>
       <c r="J61" t="n">
-        <v>0.006</v>
+        <v>0.1207</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
       <c r="E62" t="n">
-        <v>10.7596</v>
+        <v>354.0526</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9937</v>
+        <v>23.6904</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3187</v>
+        <v>2.3448</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2928</v>
+        <v>0.747</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0701</v>
+        <v>0.6559</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0086</v>
+        <v>0.1652</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.019</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>11.6863</v>
+        <v>405.3144</v>
       </c>
       <c r="F63" t="n">
-        <v>1.2053</v>
+        <v>26.3851</v>
       </c>
       <c r="G63" t="n">
-        <v>0.369</v>
+        <v>2.7238</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3229</v>
+        <v>0.8323</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0833</v>
+        <v>0.7282</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0095</v>
+        <v>0.1881</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0214</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>10.3848</v>
+        <v>358.7031</v>
       </c>
       <c r="F64" t="n">
-        <v>1.1334</v>
+        <v>23.0237</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3366</v>
+        <v>2.454</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2893</v>
+        <v>0.7348</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0777</v>
+        <v>0.6386</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0085</v>
+        <v>0.1674</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9893</v>
+        <v>451.0466</v>
       </c>
       <c r="F65" t="n">
-        <v>1.2773</v>
+        <v>29.9446</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4021</v>
+        <v>3.0106</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3581</v>
+        <v>0.9343</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0895</v>
+        <v>0.8225</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0105</v>
+        <v>0.2095</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0242</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>9.6991</v>
+        <v>341.8304</v>
       </c>
       <c r="F66" t="n">
-        <v>1.1</v>
+        <v>21.5025</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3238</v>
+        <v>2.3538</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2656</v>
+        <v>0.6974</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0737</v>
+        <v>0.6017</v>
       </c>
       <c r="J66" t="n">
-        <v>0.008</v>
+        <v>0.1605</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0177</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>14.2913</v>
+        <v>473.2131</v>
       </c>
       <c r="F67" t="n">
-        <v>1.3253</v>
+        <v>31.4557</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4261</v>
+        <v>3.12</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3878</v>
+        <v>0.993</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0935</v>
+        <v>0.8711</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0114</v>
+        <v>0.2199</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0254</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
         <v>21</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>20</v>
       </c>
       <c r="E68" t="n">
         <v>25</v>
@@ -2587,19 +2791,22 @@
       <c r="J68" t="n">
         <v>25</v>
       </c>
+      <c r="K68" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
         <v>21</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
       </c>
       <c r="E69" t="n">
         <v>75</v>
@@ -2617,6 +2824,9 @@
         <v>75</v>
       </c>
       <c r="J69" t="n">
+        <v>75</v>
+      </c>
+      <c r="K69" t="n">
         <v>75</v>
       </c>
     </row>

--- a/output/sites/table_summary_sites_nut_total_estimates.xlsx
+++ b/output/sites/table_summary_sites_nut_total_estimates.xlsx
@@ -464,25 +464,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>65.4711</v>
+        <v>60.1895</v>
       </c>
       <c r="F2" t="n">
-        <v>4.9937</v>
+        <v>4.5788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5703</v>
+        <v>0.5243</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2596</v>
+        <v>0.2381</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1163</v>
+        <v>0.107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0432</v>
+        <v>0.0397</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0041</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="3">
@@ -499,25 +499,25 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>57.7428</v>
+        <v>44.7354</v>
       </c>
       <c r="F3" t="n">
-        <v>4.3186</v>
+        <v>3.3588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5087</v>
+        <v>0.3933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2273</v>
+        <v>0.1763</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1019</v>
+        <v>0.0789</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0385</v>
+        <v>0.0296</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>73.5528</v>
+        <v>76.3074</v>
       </c>
       <c r="F4" t="n">
-        <v>5.6788</v>
+        <v>5.8778</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6343</v>
+        <v>0.659</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2938</v>
+        <v>0.303</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1317</v>
+        <v>0.1366</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0485</v>
+        <v>0.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0046</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="5">
@@ -569,25 +569,25 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>53.6963</v>
+        <v>39.5962</v>
       </c>
       <c r="F5" t="n">
-        <v>4.014</v>
+        <v>2.8782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.483</v>
+        <v>0.3599</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2146</v>
+        <v>0.1562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0975</v>
+        <v>0.0685</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0365</v>
+        <v>0.0259</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0033</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +604,25 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>78.3006</v>
+        <v>84.0559</v>
       </c>
       <c r="F6" t="n">
-        <v>6.1945</v>
+        <v>6.6853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6598</v>
+        <v>0.7033</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3146</v>
+        <v>0.3321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1435</v>
+        <v>0.1504</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0512</v>
+        <v>0.0542</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="7">
@@ -639,25 +639,25 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>197.6058</v>
+        <v>181.6132</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0641</v>
+        <v>13.8124</v>
       </c>
       <c r="G7" t="n">
-        <v>1.721</v>
+        <v>1.5817</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7832</v>
+        <v>0.7182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3511</v>
+        <v>0.3227</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304</v>
+        <v>0.1197</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0122</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="8">
@@ -674,25 +674,25 @@
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>174.1799</v>
+        <v>135.0426</v>
       </c>
       <c r="F8" t="n">
-        <v>13.0258</v>
+        <v>10.1635</v>
       </c>
       <c r="G8" t="n">
-        <v>1.537</v>
+        <v>1.1885</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6877</v>
+        <v>0.5327</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3086</v>
+        <v>0.2382</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1164</v>
+        <v>0.0895</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0107</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="9">
@@ -709,25 +709,25 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>221.327</v>
+        <v>230.2842</v>
       </c>
       <c r="F9" t="n">
-        <v>17.1456</v>
+        <v>17.7246</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9141</v>
+        <v>1.9875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8798</v>
+        <v>0.9119</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3958</v>
+        <v>0.4113</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1461</v>
+        <v>0.151</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0139</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="10">
@@ -744,25 +744,25 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>161.3031</v>
+        <v>120.1321</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0706</v>
+        <v>8.7095</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4618</v>
+        <v>1.088</v>
       </c>
       <c r="H10" t="n">
-        <v>0.658</v>
+        <v>0.4754</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2876</v>
+        <v>0.2056</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1105</v>
+        <v>0.0784</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0099</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="11">
@@ -779,25 +779,25 @@
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>235.3886</v>
+        <v>251.2549</v>
       </c>
       <c r="F11" t="n">
-        <v>18.9503</v>
+        <v>19.8898</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0346</v>
+        <v>2.1338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9621</v>
+        <v>1.0001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.434</v>
+        <v>0.449</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1519</v>
+        <v>0.1673</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0156</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="12">
@@ -814,25 +814,25 @@
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>263.0769</v>
+        <v>241.8027</v>
       </c>
       <c r="F12" t="n">
-        <v>20.0578</v>
+        <v>18.3912</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2913</v>
+        <v>2.106</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0428</v>
+        <v>0.9563</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4674</v>
+        <v>0.4297</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1736</v>
+        <v>0.1593</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0163</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13">
@@ -849,25 +849,25 @@
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>231.7873</v>
+        <v>179.7053</v>
       </c>
       <c r="F13" t="n">
-        <v>17.3424</v>
+        <v>13.5372</v>
       </c>
       <c r="G13" t="n">
-        <v>2.048</v>
+        <v>1.5807</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9171</v>
+        <v>0.7099</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4099</v>
+        <v>0.3172</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1547</v>
+        <v>0.1193</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0142</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="14">
@@ -884,25 +884,25 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>294.6543</v>
+        <v>306.4815</v>
       </c>
       <c r="F14" t="n">
-        <v>22.8418</v>
+        <v>23.6125</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5424</v>
+        <v>2.6473</v>
       </c>
       <c r="H14" t="n">
-        <v>1.1719</v>
+        <v>1.2137</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5277</v>
+        <v>0.5472</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1945</v>
+        <v>0.2008</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0185</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="15">
@@ -919,25 +919,25 @@
         <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>214.9994</v>
+        <v>160.0995</v>
       </c>
       <c r="F15" t="n">
-        <v>16.0846</v>
+        <v>11.6145</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9447</v>
+        <v>1.4561</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8726</v>
+        <v>0.6367</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3854</v>
+        <v>0.274</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1473</v>
+        <v>0.1042</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0132</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="16">
@@ -954,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>313.6892</v>
+        <v>335.0753</v>
       </c>
       <c r="F16" t="n">
-        <v>24.9839</v>
+        <v>26.5752</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6898</v>
+        <v>2.8344</v>
       </c>
       <c r="H16" t="n">
-        <v>1.2738</v>
+        <v>1.3322</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5774</v>
+        <v>0.5984</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2031</v>
+        <v>0.2215</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0205</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="17">
@@ -1059,25 +1059,25 @@
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>90.6728</v>
+        <v>94.8828</v>
       </c>
       <c r="F19" t="n">
-        <v>6.9079</v>
+        <v>7.2215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7902</v>
+        <v>0.8265</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3589</v>
+        <v>0.3755</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1612</v>
+        <v>0.1686</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0598</v>
+        <v>0.0625</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0056</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="20">
@@ -1094,25 +1094,25 @@
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>80.3278</v>
+        <v>82.8437</v>
       </c>
       <c r="F20" t="n">
-        <v>6.0401</v>
+        <v>6.2293</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7098</v>
+        <v>0.7317</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3179</v>
+        <v>0.3273</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1411</v>
+        <v>0.1464</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0532</v>
+        <v>0.0548</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0049</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="21">
@@ -1129,25 +1129,25 @@
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>101.0859</v>
+        <v>107.2259</v>
       </c>
       <c r="F21" t="n">
-        <v>7.8101</v>
+        <v>8.2291</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8714</v>
+        <v>0.9206</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4028</v>
+        <v>0.4249</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1817</v>
+        <v>0.1914</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0667</v>
+        <v>0.0703</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0063</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="22">
@@ -1164,22 +1164,22 @@
         <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>75.6572</v>
+        <v>76.8122</v>
       </c>
       <c r="F22" t="n">
-        <v>5.5964</v>
+        <v>5.6805</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6733</v>
+        <v>0.6863</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2909</v>
+        <v>0.3001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.134</v>
+        <v>0.1343</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0495</v>
+        <v>0.0508</v>
       </c>
       <c r="K22" t="n">
         <v>0.0047</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>108.2337</v>
+        <v>114.4832</v>
       </c>
       <c r="F23" t="n">
-        <v>8.2763</v>
+        <v>8.9264</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9024</v>
+        <v>0.9665</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4239</v>
+        <v>0.4567</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1901</v>
+        <v>0.2142</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0699</v>
+        <v>0.0753</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0066</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="24">
@@ -1234,25 +1234,25 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>273.4896</v>
+        <v>286.3099</v>
       </c>
       <c r="F24" t="n">
-        <v>20.8462</v>
+        <v>21.7876</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3842</v>
+        <v>2.494</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0831</v>
+        <v>1.133</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4864</v>
+        <v>0.5088</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1804</v>
+        <v>0.1887</v>
       </c>
       <c r="K24" t="n">
-        <v>0.017</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="25">
@@ -1269,25 +1269,25 @@
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>242.0055</v>
+        <v>250.6465</v>
       </c>
       <c r="F25" t="n">
-        <v>18.17</v>
+        <v>18.8156</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1426</v>
+        <v>2.2127</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9599</v>
+        <v>0.9888</v>
       </c>
       <c r="I25" t="n">
-        <v>0.426</v>
+        <v>0.4424</v>
       </c>
       <c r="J25" t="n">
-        <v>0.161</v>
+        <v>0.1657</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0149</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="26">
@@ -1304,25 +1304,25 @@
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>304.7545</v>
+        <v>323.316</v>
       </c>
       <c r="F26" t="n">
-        <v>23.6273</v>
+        <v>24.7943</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6308</v>
+        <v>2.7744</v>
       </c>
       <c r="H26" t="n">
-        <v>1.2172</v>
+        <v>1.2823</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5469</v>
+        <v>0.5764</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2008</v>
+        <v>0.2117</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0191</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="27">
@@ -1339,22 +1339,22 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>228.1154</v>
+        <v>227.7951</v>
       </c>
       <c r="F27" t="n">
-        <v>17.2619</v>
+        <v>17.19</v>
       </c>
       <c r="G27" t="n">
-        <v>2.041</v>
+        <v>2.0549</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8738</v>
+        <v>0.9131</v>
       </c>
       <c r="I27" t="n">
-        <v>0.405</v>
+        <v>0.4054</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1513</v>
+        <v>0.1527</v>
       </c>
       <c r="K27" t="n">
         <v>0.0142</v>
@@ -1374,25 +1374,25 @@
         <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>321.9887</v>
+        <v>341.5445</v>
       </c>
       <c r="F28" t="n">
-        <v>24.8659</v>
+        <v>26.3667</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6977</v>
+        <v>2.902</v>
       </c>
       <c r="H28" t="n">
-        <v>1.2707</v>
+        <v>1.3682</v>
       </c>
       <c r="I28" t="n">
-        <v>0.575</v>
+        <v>0.6325</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2111</v>
+        <v>0.2296</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="29">
@@ -1409,25 +1409,25 @@
         <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>364.1624</v>
+        <v>381.1927</v>
       </c>
       <c r="F29" t="n">
-        <v>27.7541</v>
+        <v>29.0091</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1744</v>
+        <v>3.3205</v>
       </c>
       <c r="H29" t="n">
-        <v>1.442</v>
+        <v>1.5086</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6476</v>
+        <v>0.6774</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2401</v>
+        <v>0.2512</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0226</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="30">
@@ -1444,25 +1444,25 @@
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>322.0928</v>
+        <v>333.7158</v>
       </c>
       <c r="F30" t="n">
-        <v>24.2028</v>
+        <v>25.0553</v>
       </c>
       <c r="G30" t="n">
-        <v>2.8541</v>
+        <v>2.9455</v>
       </c>
       <c r="H30" t="n">
-        <v>1.2795</v>
+        <v>1.3179</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5673</v>
+        <v>0.5891</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2144</v>
+        <v>0.2207</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0197</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="31">
@@ -1479,25 +1479,25 @@
         <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>405.2854</v>
+        <v>430.2935</v>
       </c>
       <c r="F31" t="n">
-        <v>31.3942</v>
+        <v>32.9739</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5011</v>
+        <v>3.6931</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6189</v>
+        <v>1.7058</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7295</v>
+        <v>0.768</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2672</v>
+        <v>0.2818</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0254</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="32">
@@ -1514,25 +1514,25 @@
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>303.7725</v>
+        <v>305.6679</v>
       </c>
       <c r="F32" t="n">
-        <v>22.9184</v>
+        <v>22.9499</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7273</v>
+        <v>2.7412</v>
       </c>
       <c r="H32" t="n">
-        <v>1.1715</v>
+        <v>1.2133</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5401</v>
+        <v>0.54</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2008</v>
+        <v>0.204</v>
       </c>
       <c r="K32" t="n">
-        <v>0.019</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="33">
@@ -1549,25 +1549,25 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>430.2224</v>
+        <v>456.0277</v>
       </c>
       <c r="F33" t="n">
-        <v>33.1422</v>
+        <v>35.1913</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6001</v>
+        <v>3.8562</v>
       </c>
       <c r="H33" t="n">
-        <v>1.6917</v>
+        <v>1.8226</v>
       </c>
       <c r="I33" t="n">
-        <v>0.765</v>
+        <v>0.8467</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2807</v>
+        <v>0.3049</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0265</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="34">
@@ -1654,25 +1654,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>57.8013</v>
+        <v>53.089</v>
       </c>
       <c r="F36" t="n">
-        <v>5.2352</v>
+        <v>4.8139</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6572</v>
+        <v>0.6045</v>
       </c>
       <c r="H36" t="n">
-        <v>0.377</v>
+        <v>0.346</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1005</v>
+        <v>0.0924</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0532</v>
+        <v>0.0489</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0043</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="37">
@@ -1689,25 +1689,25 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>50.4164</v>
+        <v>39.1975</v>
       </c>
       <c r="F37" t="n">
-        <v>4.5273</v>
+        <v>3.5299</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5885</v>
+        <v>0.4555</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3351</v>
+        <v>0.2586</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0887</v>
+        <v>0.0688</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0475</v>
+        <v>0.0365</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0037</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="38">
@@ -1724,25 +1724,25 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>65.0824</v>
+        <v>67.5174</v>
       </c>
       <c r="F38" t="n">
-        <v>5.9772</v>
+        <v>6.1688</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7266</v>
+        <v>0.7571</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4212</v>
+        <v>0.436</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1127</v>
+        <v>0.1169</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0597</v>
+        <v>0.0615</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0049</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="39">
@@ -1759,25 +1759,25 @@
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>46.7564</v>
+        <v>34.8027</v>
       </c>
       <c r="F39" t="n">
-        <v>3.9667</v>
+        <v>3.0064</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5721</v>
+        <v>0.4096</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3218</v>
+        <v>0.2291</v>
       </c>
       <c r="I39" t="n">
-        <v>0.083</v>
+        <v>0.061</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0455</v>
+        <v>0.0316</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0033</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="40">
@@ -1794,25 +1794,25 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>71.9813</v>
+        <v>75.16</v>
       </c>
       <c r="F40" t="n">
-        <v>6.2577</v>
+        <v>6.8465</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7496</v>
+        <v>0.8095</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4387</v>
+        <v>0.4869</v>
       </c>
       <c r="I40" t="n">
-        <v>0.121</v>
+        <v>0.1278</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0661</v>
+        <v>0.0674</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0051</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="41">
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>174.3593</v>
+        <v>160.1485</v>
       </c>
       <c r="F41" t="n">
-        <v>15.7905</v>
+        <v>14.5268</v>
       </c>
       <c r="G41" t="n">
-        <v>1.9838</v>
+        <v>1.8237</v>
       </c>
       <c r="H41" t="n">
-        <v>1.1375</v>
+        <v>1.0439</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3034</v>
+        <v>0.2789</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1607</v>
+        <v>0.1475</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0129</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="42">
@@ -1864,25 +1864,25 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>152.3662</v>
+        <v>118.7323</v>
       </c>
       <c r="F42" t="n">
-        <v>13.7129</v>
+        <v>10.6809</v>
       </c>
       <c r="G42" t="n">
-        <v>1.7802</v>
+        <v>1.3743</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0105</v>
+        <v>0.782</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2679</v>
+        <v>0.2083</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1427</v>
+        <v>0.1103</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0113</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="43">
@@ -1899,25 +1899,25 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>196.9432</v>
+        <v>203.1646</v>
       </c>
       <c r="F43" t="n">
-        <v>18.0245</v>
+        <v>18.5612</v>
       </c>
       <c r="G43" t="n">
-        <v>2.1883</v>
+        <v>2.2808</v>
       </c>
       <c r="H43" t="n">
-        <v>1.272</v>
+        <v>1.314</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3391</v>
+        <v>0.3517</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1793</v>
+        <v>0.1853</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0146</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="44">
@@ -1934,25 +1934,25 @@
         <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>140.2027</v>
+        <v>104.5591</v>
       </c>
       <c r="F44" t="n">
-        <v>11.98</v>
+        <v>9.0077</v>
       </c>
       <c r="G44" t="n">
-        <v>1.6737</v>
+        <v>1.2303</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9479</v>
+        <v>0.7013</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2527</v>
+        <v>0.1849</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1355</v>
+        <v>0.097</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0099</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="45">
@@ -1969,25 +1969,25 @@
         <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>214.0117</v>
+        <v>223.3632</v>
       </c>
       <c r="F45" t="n">
-        <v>19.0845</v>
+        <v>20.6614</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2688</v>
+        <v>2.4661</v>
       </c>
       <c r="H45" t="n">
-        <v>1.2976</v>
+        <v>1.4651</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3651</v>
+        <v>0.3806</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1913</v>
+        <v>0.2008</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0153</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="46">
@@ -2004,25 +2004,25 @@
         <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>232.1606</v>
+        <v>213.2375</v>
       </c>
       <c r="F46" t="n">
-        <v>21.0257</v>
+        <v>19.3408</v>
       </c>
       <c r="G46" t="n">
-        <v>2.6409</v>
+        <v>2.4281</v>
       </c>
       <c r="H46" t="n">
-        <v>1.5144</v>
+        <v>1.3898</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4039</v>
+        <v>0.3714</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2139</v>
+        <v>0.1963</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0171</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="47">
@@ -2039,25 +2039,25 @@
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>203.0145</v>
+        <v>158.0086</v>
       </c>
       <c r="F47" t="n">
-        <v>18.2678</v>
+        <v>14.211</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3741</v>
+        <v>1.8323</v>
       </c>
       <c r="H47" t="n">
-        <v>1.3478</v>
+        <v>1.0413</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3572</v>
+        <v>0.2774</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1904</v>
+        <v>0.147</v>
       </c>
       <c r="K47" t="n">
-        <v>0.015</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="48">
@@ -2074,25 +2074,25 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>261.2223</v>
+        <v>270.6947</v>
       </c>
       <c r="F48" t="n">
-        <v>23.9552</v>
+        <v>24.7179</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9107</v>
+        <v>3.037</v>
       </c>
       <c r="H48" t="n">
-        <v>1.6933</v>
+        <v>1.7492</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4506</v>
+        <v>0.4681</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2386</v>
+        <v>0.2465</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0195</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="49">
@@ -2109,25 +2109,25 @@
         <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>186.959</v>
+        <v>139.424</v>
       </c>
       <c r="F49" t="n">
-        <v>15.9466</v>
+        <v>12.0141</v>
       </c>
       <c r="G49" t="n">
-        <v>2.2477</v>
+        <v>1.6399</v>
       </c>
       <c r="H49" t="n">
-        <v>1.2697</v>
+        <v>0.9305</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3369</v>
+        <v>0.2458</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1812</v>
+        <v>0.1289</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0132</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="50">
@@ -2144,25 +2144,25 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>285.993</v>
+        <v>298.5232</v>
       </c>
       <c r="F50" t="n">
-        <v>25.2891</v>
+        <v>27.2864</v>
       </c>
       <c r="G50" t="n">
-        <v>3.0148</v>
+        <v>3.2756</v>
       </c>
       <c r="H50" t="n">
-        <v>1.7327</v>
+        <v>1.9519</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4861</v>
+        <v>0.5083</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2573</v>
+        <v>0.2677</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0204</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="51">
@@ -2249,25 +2249,25 @@
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>100.8842</v>
+        <v>105.3678</v>
       </c>
       <c r="F53" t="n">
-        <v>6.5674</v>
+        <v>6.8729</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6779</v>
+        <v>0.7087</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2072</v>
+        <v>0.2169</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1813</v>
+        <v>0.19</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0468</v>
+        <v>0.049</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0053</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="54">
@@ -2284,25 +2284,25 @@
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>89.3698</v>
+        <v>92.2992</v>
       </c>
       <c r="F54" t="n">
-        <v>5.7345</v>
+        <v>5.913</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6096</v>
+        <v>0.6261</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1826</v>
+        <v>0.1889</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1579</v>
+        <v>0.1635</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0417</v>
+        <v>0.0431</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="55">
@@ -2319,25 +2319,25 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>112.5219</v>
+        <v>118.3901</v>
       </c>
       <c r="F55" t="n">
-        <v>7.4687</v>
+        <v>7.8773</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7499</v>
+        <v>0.7911</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2331</v>
+        <v>0.246</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2053</v>
+        <v>0.2171</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0522</v>
+        <v>0.055</v>
       </c>
       <c r="K55" t="n">
-        <v>0.006</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="56">
@@ -2354,25 +2354,25 @@
         <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>84.3009</v>
+        <v>86.5008</v>
       </c>
       <c r="F56" t="n">
-        <v>5.3251</v>
+        <v>5.1933</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5861</v>
+        <v>0.591</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1731</v>
+        <v>0.1727</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1495</v>
+        <v>0.1449</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0394</v>
+        <v>0.04</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="57">
@@ -2389,25 +2389,25 @@
         <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>120.8764</v>
+        <v>128.0259</v>
       </c>
       <c r="F57" t="n">
-        <v>7.8803</v>
+        <v>8.7727</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7865</v>
+        <v>0.8523</v>
       </c>
       <c r="H57" t="n">
-        <v>0.246</v>
+        <v>0.2676</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2162</v>
+        <v>0.2427</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0547</v>
+        <v>0.0588</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0065</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="58">
@@ -2424,25 +2424,25 @@
         <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>304.4302</v>
+        <v>317.9753</v>
       </c>
       <c r="F58" t="n">
-        <v>19.8177</v>
+        <v>20.7359</v>
       </c>
       <c r="G58" t="n">
-        <v>2.0459</v>
+        <v>2.1383</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6251</v>
+        <v>0.6543</v>
       </c>
       <c r="I58" t="n">
-        <v>0.547</v>
+        <v>0.5731</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1413</v>
+        <v>0.1478</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0161</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="59">
@@ -2459,25 +2459,25 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>269.2718</v>
+        <v>278.8459</v>
       </c>
       <c r="F59" t="n">
-        <v>17.3291</v>
+        <v>17.8426</v>
       </c>
       <c r="G59" t="n">
-        <v>1.84</v>
+        <v>1.8899</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5521</v>
+        <v>0.5703</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4796</v>
+        <v>0.4944</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1259</v>
+        <v>0.1301</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0141</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="60">
@@ -2494,25 +2494,25 @@
         <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>338.6791</v>
+        <v>357.4874</v>
       </c>
       <c r="F60" t="n">
-        <v>22.4914</v>
+        <v>23.7861</v>
       </c>
       <c r="G60" t="n">
-        <v>2.259</v>
+        <v>2.3844</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7022</v>
+        <v>0.741</v>
       </c>
       <c r="I60" t="n">
-        <v>0.619</v>
+        <v>0.6551</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1571</v>
+        <v>0.1657</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0182</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="61">
@@ -2529,22 +2529,22 @@
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>256.881</v>
+        <v>261.7168</v>
       </c>
       <c r="F61" t="n">
-        <v>16.1694</v>
+        <v>16.4256</v>
       </c>
       <c r="G61" t="n">
-        <v>1.7603</v>
+        <v>1.7781</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5243</v>
+        <v>0.5258</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4504</v>
+        <v>0.4568</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1207</v>
+        <v>0.1208</v>
       </c>
       <c r="K61" t="n">
         <v>0.0133</v>
@@ -2564,25 +2564,25 @@
         <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>354.0526</v>
+        <v>377.2423</v>
       </c>
       <c r="F62" t="n">
-        <v>23.6904</v>
+        <v>25.8393</v>
       </c>
       <c r="G62" t="n">
-        <v>2.3448</v>
+        <v>2.5491</v>
       </c>
       <c r="H62" t="n">
-        <v>0.747</v>
+        <v>0.8056</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6559</v>
+        <v>0.7296</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1652</v>
+        <v>0.1774</v>
       </c>
       <c r="K62" t="n">
-        <v>0.019</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="63">
@@ -2599,25 +2599,25 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>405.3144</v>
+        <v>423.343</v>
       </c>
       <c r="F63" t="n">
-        <v>26.3851</v>
+        <v>27.6088</v>
       </c>
       <c r="G63" t="n">
-        <v>2.7238</v>
+        <v>2.847</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8323</v>
+        <v>0.8712</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7282</v>
+        <v>0.7631</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1881</v>
+        <v>0.1968</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0214</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="64">
@@ -2634,25 +2634,25 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>358.7031</v>
+        <v>371.2207</v>
       </c>
       <c r="F64" t="n">
-        <v>23.0237</v>
+        <v>23.7778</v>
       </c>
       <c r="G64" t="n">
-        <v>2.454</v>
+        <v>2.5183</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7348</v>
+        <v>0.7598</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6386</v>
+        <v>0.6588</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1674</v>
+        <v>0.1734</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0188</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="65">
@@ -2669,25 +2669,25 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>451.0466</v>
+        <v>475.8226</v>
       </c>
       <c r="F65" t="n">
-        <v>29.9446</v>
+        <v>31.64</v>
       </c>
       <c r="G65" t="n">
-        <v>3.0106</v>
+        <v>3.1746</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9343</v>
+        <v>0.9869</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8225</v>
+        <v>0.8721</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2095</v>
+        <v>0.2205</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0242</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="66">
@@ -2704,22 +2704,22 @@
         <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>341.8304</v>
+        <v>349.5394</v>
       </c>
       <c r="F66" t="n">
-        <v>21.5025</v>
+        <v>21.8218</v>
       </c>
       <c r="G66" t="n">
-        <v>2.3538</v>
+        <v>2.3738</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6974</v>
+        <v>0.6996</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6017</v>
+        <v>0.6103</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1605</v>
+        <v>0.1613</v>
       </c>
       <c r="K66" t="n">
         <v>0.0177</v>
@@ -2739,25 +2739,25 @@
         <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>473.2131</v>
+        <v>504.3753</v>
       </c>
       <c r="F67" t="n">
-        <v>31.4557</v>
+        <v>34.5611</v>
       </c>
       <c r="G67" t="n">
-        <v>3.12</v>
+        <v>3.4014</v>
       </c>
       <c r="H67" t="n">
-        <v>0.993</v>
+        <v>1.0731</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8711</v>
+        <v>0.9723</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2199</v>
+        <v>0.2358</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0254</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="68">

--- a/output/sites/table_summary_sites_nut_total_estimates.xlsx
+++ b/output/sites/table_summary_sites_nut_total_estimates.xlsx
@@ -464,19 +464,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>60.1895</v>
+        <v>60.1712</v>
       </c>
       <c r="F2" t="n">
-        <v>4.5788</v>
+        <v>4.5791</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5243</v>
+        <v>0.5242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2381</v>
+        <v>0.2382</v>
       </c>
       <c r="I2" t="n">
-        <v>0.107</v>
+        <v>0.1069</v>
       </c>
       <c r="J2" t="n">
         <v>0.0397</v>
@@ -499,19 +499,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>44.7354</v>
+        <v>44.9359</v>
       </c>
       <c r="F3" t="n">
-        <v>3.3588</v>
+        <v>3.3744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3933</v>
+        <v>0.3953</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1763</v>
+        <v>0.1758</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0789</v>
+        <v>0.079</v>
       </c>
       <c r="J3" t="n">
         <v>0.0296</v>
@@ -534,22 +534,22 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>76.3074</v>
+        <v>76.2463</v>
       </c>
       <c r="F4" t="n">
-        <v>5.8778</v>
+        <v>5.8642</v>
       </c>
       <c r="G4" t="n">
-        <v>0.659</v>
+        <v>0.6576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.303</v>
+        <v>0.3031</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1366</v>
+        <v>0.1359</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05</v>
+        <v>0.0501</v>
       </c>
       <c r="K4" t="n">
         <v>0.0048</v>
@@ -569,25 +569,25 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>39.5962</v>
+        <v>38.4452</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8782</v>
+        <v>2.8494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3599</v>
+        <v>0.3551</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1562</v>
+        <v>0.1556</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0685</v>
+        <v>0.0713</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0259</v>
+        <v>0.027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0023</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +604,25 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>84.0559</v>
+        <v>82.3868</v>
       </c>
       <c r="F6" t="n">
-        <v>6.6853</v>
+        <v>6.607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7033</v>
+        <v>0.7026</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3321</v>
+        <v>0.3306</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1504</v>
+        <v>0.1506</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0542</v>
+        <v>0.0545</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0054</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="7">
@@ -639,22 +639,22 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>181.6132</v>
+        <v>181.5572</v>
       </c>
       <c r="F7" t="n">
-        <v>13.8124</v>
+        <v>13.817</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5817</v>
+        <v>1.5819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7182</v>
+        <v>0.7187</v>
       </c>
       <c r="I7" t="n">
         <v>0.3227</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1197</v>
+        <v>0.1198</v>
       </c>
       <c r="K7" t="n">
         <v>0.0112</v>
@@ -674,22 +674,22 @@
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>135.0426</v>
+        <v>135.2914</v>
       </c>
       <c r="F8" t="n">
-        <v>10.1635</v>
+        <v>10.1858</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1885</v>
+        <v>1.1933</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5327</v>
+        <v>0.5315</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2382</v>
+        <v>0.2388</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0895</v>
+        <v>0.0894</v>
       </c>
       <c r="K8" t="n">
         <v>0.0083</v>
@@ -709,25 +709,25 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>230.2842</v>
+        <v>229.309</v>
       </c>
       <c r="F9" t="n">
-        <v>17.7246</v>
+        <v>17.6648</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9875</v>
+        <v>1.9843</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9119</v>
+        <v>0.9141</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4113</v>
+        <v>0.4112</v>
       </c>
       <c r="J9" t="n">
-        <v>0.151</v>
+        <v>0.1511</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0144</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="10">
@@ -744,25 +744,25 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>120.1321</v>
+        <v>119.4165</v>
       </c>
       <c r="F10" t="n">
-        <v>8.7095</v>
+        <v>8.7235</v>
       </c>
       <c r="G10" t="n">
-        <v>1.088</v>
+        <v>1.111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4754</v>
+        <v>0.4849</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2056</v>
+        <v>0.2149</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0784</v>
+        <v>0.0821</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11">
@@ -779,25 +779,25 @@
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>251.2549</v>
+        <v>246.279</v>
       </c>
       <c r="F11" t="n">
-        <v>19.8898</v>
+        <v>20.0003</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1338</v>
+        <v>2.1004</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0001</v>
+        <v>0.9893</v>
       </c>
       <c r="I11" t="n">
-        <v>0.449</v>
+        <v>0.445</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1673</v>
+        <v>0.1637</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0161</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="12">
@@ -814,22 +814,22 @@
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>241.8027</v>
+        <v>241.7284</v>
       </c>
       <c r="F12" t="n">
-        <v>18.3912</v>
+        <v>18.396</v>
       </c>
       <c r="G12" t="n">
-        <v>2.106</v>
+        <v>2.1061</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9563</v>
+        <v>0.9569</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4297</v>
+        <v>0.4296</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1593</v>
+        <v>0.1594</v>
       </c>
       <c r="K12" t="n">
         <v>0.015</v>
@@ -849,25 +849,25 @@
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>179.7053</v>
+        <v>180.3879</v>
       </c>
       <c r="F13" t="n">
-        <v>13.5372</v>
+        <v>13.5813</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5807</v>
+        <v>1.5897</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7099</v>
+        <v>0.7093</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3172</v>
+        <v>0.3178</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1193</v>
+        <v>0.1192</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="14">
@@ -884,25 +884,25 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>306.4815</v>
+        <v>305.2633</v>
       </c>
       <c r="F14" t="n">
-        <v>23.6125</v>
+        <v>23.515</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6473</v>
+        <v>2.6416</v>
       </c>
       <c r="H14" t="n">
-        <v>1.2137</v>
+        <v>1.2167</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5472</v>
+        <v>0.5466</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2008</v>
+        <v>0.2011</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0191</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="15">
@@ -919,25 +919,25 @@
         <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>160.0995</v>
+        <v>158.1847</v>
       </c>
       <c r="F15" t="n">
-        <v>11.6145</v>
+        <v>11.5729</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4561</v>
+        <v>1.4834</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6367</v>
+        <v>0.645</v>
       </c>
       <c r="I15" t="n">
-        <v>0.274</v>
+        <v>0.2872</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1042</v>
+        <v>0.1098</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0094</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="16">
@@ -954,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>335.0753</v>
+        <v>327.6641</v>
       </c>
       <c r="F16" t="n">
-        <v>26.5752</v>
+        <v>26.5767</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8344</v>
+        <v>2.8029</v>
       </c>
       <c r="H16" t="n">
-        <v>1.3322</v>
+        <v>1.3141</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5984</v>
+        <v>0.5927</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2215</v>
+        <v>0.2182</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="17">
@@ -1059,22 +1059,22 @@
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>94.8828</v>
+        <v>94.6805</v>
       </c>
       <c r="F19" t="n">
-        <v>7.2215</v>
+        <v>7.2056</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8265</v>
+        <v>0.825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3755</v>
+        <v>0.3748</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1686</v>
+        <v>0.1683</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0625</v>
+        <v>0.0624</v>
       </c>
       <c r="K19" t="n">
         <v>0.0059</v>
@@ -1094,22 +1094,22 @@
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>82.8437</v>
+        <v>82.7065</v>
       </c>
       <c r="F20" t="n">
-        <v>6.2293</v>
+        <v>6.2186</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7317</v>
+        <v>0.7308</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3273</v>
+        <v>0.327</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1464</v>
+        <v>0.1466</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0548</v>
+        <v>0.0549</v>
       </c>
       <c r="K20" t="n">
         <v>0.0051</v>
@@ -1129,22 +1129,22 @@
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>107.2259</v>
+        <v>106.7686</v>
       </c>
       <c r="F21" t="n">
-        <v>8.2291</v>
+        <v>8.2732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9206</v>
+        <v>0.9239</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4249</v>
+        <v>0.4252</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1914</v>
+        <v>0.1924</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0703</v>
+        <v>0.0702</v>
       </c>
       <c r="K21" t="n">
         <v>0.0067</v>
@@ -1164,22 +1164,22 @@
         <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>76.8122</v>
+        <v>76.1896</v>
       </c>
       <c r="F22" t="n">
-        <v>5.6805</v>
+        <v>5.5815</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6863</v>
+        <v>0.6798</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3001</v>
+        <v>0.2998</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1343</v>
+        <v>0.1313</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0508</v>
+        <v>0.0511</v>
       </c>
       <c r="K22" t="n">
         <v>0.0047</v>
@@ -1199,22 +1199,22 @@
         <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>114.4832</v>
+        <v>119.1767</v>
       </c>
       <c r="F23" t="n">
-        <v>8.9264</v>
+        <v>9.0024</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9665</v>
+        <v>0.968</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4567</v>
+        <v>0.4605</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2142</v>
+        <v>0.2081</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0753</v>
+        <v>0.0765</v>
       </c>
       <c r="K23" t="n">
         <v>0.0073</v>
@@ -1234,22 +1234,22 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>286.3099</v>
+        <v>285.5968</v>
       </c>
       <c r="F24" t="n">
-        <v>21.7876</v>
+        <v>21.7422</v>
       </c>
       <c r="G24" t="n">
-        <v>2.494</v>
+        <v>2.4894</v>
       </c>
       <c r="H24" t="n">
-        <v>1.133</v>
+        <v>1.1313</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5088</v>
+        <v>0.5078</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1887</v>
+        <v>0.1884</v>
       </c>
       <c r="K24" t="n">
         <v>0.0177</v>
@@ -1269,25 +1269,25 @@
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>250.6465</v>
+        <v>250.3176</v>
       </c>
       <c r="F25" t="n">
-        <v>18.8156</v>
+        <v>18.7599</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2127</v>
+        <v>2.2044</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9888</v>
+        <v>0.9885</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4424</v>
+        <v>0.4418</v>
       </c>
       <c r="J25" t="n">
         <v>0.1657</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0154</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="26">
@@ -1304,25 +1304,25 @@
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>323.316</v>
+        <v>322.2016</v>
       </c>
       <c r="F26" t="n">
-        <v>24.7943</v>
+        <v>24.8753</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7744</v>
+        <v>2.7857</v>
       </c>
       <c r="H26" t="n">
-        <v>1.2823</v>
+        <v>1.2853</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5764</v>
+        <v>0.5787</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2117</v>
+        <v>0.2118</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="27">
@@ -1339,25 +1339,25 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>227.7951</v>
+        <v>229.3828</v>
       </c>
       <c r="F27" t="n">
-        <v>17.19</v>
+        <v>16.9191</v>
       </c>
       <c r="G27" t="n">
-        <v>2.0549</v>
+        <v>2.0419</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9131</v>
+        <v>0.9211</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4054</v>
+        <v>0.3936</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1527</v>
+        <v>0.1569</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0142</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="28">
@@ -1374,25 +1374,25 @@
         <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>341.5445</v>
+        <v>349.3327</v>
       </c>
       <c r="F28" t="n">
-        <v>26.3667</v>
+        <v>27.2286</v>
       </c>
       <c r="G28" t="n">
-        <v>2.902</v>
+        <v>2.9448</v>
       </c>
       <c r="H28" t="n">
-        <v>1.3682</v>
+        <v>1.3734</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6325</v>
+        <v>0.6282</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2296</v>
+        <v>0.2288</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0218</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="29">
@@ -1409,22 +1409,22 @@
         <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1927</v>
+        <v>380.2773</v>
       </c>
       <c r="F29" t="n">
-        <v>29.0091</v>
+        <v>28.9478</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3205</v>
+        <v>3.3144</v>
       </c>
       <c r="H29" t="n">
-        <v>1.5086</v>
+        <v>1.5061</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6774</v>
+        <v>0.6761</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2512</v>
+        <v>0.2508</v>
       </c>
       <c r="K29" t="n">
         <v>0.0236</v>
@@ -1444,25 +1444,25 @@
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>333.7158</v>
+        <v>333.405</v>
       </c>
       <c r="F30" t="n">
-        <v>25.0553</v>
+        <v>24.9946</v>
       </c>
       <c r="G30" t="n">
-        <v>2.9455</v>
+        <v>2.938</v>
       </c>
       <c r="H30" t="n">
-        <v>1.3179</v>
+        <v>1.3152</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5891</v>
+        <v>0.5894</v>
       </c>
       <c r="J30" t="n">
         <v>0.2207</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="31">
@@ -1479,25 +1479,25 @@
         <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>430.2935</v>
+        <v>428.1858</v>
       </c>
       <c r="F31" t="n">
-        <v>32.9739</v>
+        <v>33.15</v>
       </c>
       <c r="G31" t="n">
-        <v>3.6931</v>
+        <v>3.7089</v>
       </c>
       <c r="H31" t="n">
-        <v>1.7058</v>
+        <v>1.7083</v>
       </c>
       <c r="I31" t="n">
-        <v>0.768</v>
+        <v>0.7714</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2818</v>
+        <v>0.2817</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0268</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="32">
@@ -1514,25 +1514,25 @@
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>305.6679</v>
+        <v>305.5724</v>
       </c>
       <c r="F32" t="n">
-        <v>22.9499</v>
+        <v>22.608</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7412</v>
+        <v>2.7217</v>
       </c>
       <c r="H32" t="n">
-        <v>1.2133</v>
+        <v>1.2292</v>
       </c>
       <c r="I32" t="n">
-        <v>0.54</v>
+        <v>0.5274</v>
       </c>
       <c r="J32" t="n">
-        <v>0.204</v>
+        <v>0.2079</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0189</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="33">
@@ -1549,25 +1549,25 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>456.0277</v>
+        <v>468.5095</v>
       </c>
       <c r="F33" t="n">
-        <v>35.1913</v>
+        <v>36.175</v>
       </c>
       <c r="G33" t="n">
-        <v>3.8562</v>
+        <v>3.9104</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8226</v>
+        <v>1.8232</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8467</v>
+        <v>0.8363</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3049</v>
+        <v>0.3054</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0291</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="34">
@@ -1654,19 +1654,19 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>53.089</v>
+        <v>53.0407</v>
       </c>
       <c r="F36" t="n">
-        <v>4.8139</v>
+        <v>4.8174</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6045</v>
+        <v>0.6046</v>
       </c>
       <c r="H36" t="n">
-        <v>0.346</v>
+        <v>0.3462</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0924</v>
+        <v>0.0925</v>
       </c>
       <c r="J36" t="n">
         <v>0.0489</v>
@@ -1689,22 +1689,22 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>39.1975</v>
+        <v>39.4157</v>
       </c>
       <c r="F37" t="n">
-        <v>3.5299</v>
+        <v>3.5284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4555</v>
+        <v>0.4554</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2586</v>
+        <v>0.258</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0688</v>
+        <v>0.069</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0365</v>
+        <v>0.0367</v>
       </c>
       <c r="K37" t="n">
         <v>0.0029</v>
@@ -1724,22 +1724,22 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>67.5174</v>
+        <v>67.3007</v>
       </c>
       <c r="F38" t="n">
-        <v>6.1688</v>
+        <v>6.1244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7571</v>
+        <v>0.7559</v>
       </c>
       <c r="H38" t="n">
-        <v>0.436</v>
+        <v>0.4358</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1169</v>
+        <v>0.1167</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0615</v>
+        <v>0.0617</v>
       </c>
       <c r="K38" t="n">
         <v>0.005</v>
@@ -1759,22 +1759,22 @@
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>34.8027</v>
+        <v>34.9908</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0064</v>
+        <v>3.0636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4096</v>
+        <v>0.4158</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2291</v>
+        <v>0.2315</v>
       </c>
       <c r="I39" t="n">
-        <v>0.061</v>
+        <v>0.0617</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0316</v>
+        <v>0.0329</v>
       </c>
       <c r="K39" t="n">
         <v>0.0025</v>
@@ -1794,25 +1794,25 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>75.16</v>
+        <v>72.3402</v>
       </c>
       <c r="F40" t="n">
-        <v>6.8465</v>
+        <v>6.7637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8095</v>
+        <v>0.8126</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4869</v>
+        <v>0.4638</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1278</v>
+        <v>0.1247</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0674</v>
+        <v>0.0661</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0055</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="41">
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>160.1485</v>
+        <v>160.074</v>
       </c>
       <c r="F41" t="n">
-        <v>14.5268</v>
+        <v>14.5395</v>
       </c>
       <c r="G41" t="n">
-        <v>1.8237</v>
+        <v>1.8247</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0439</v>
+        <v>1.0446</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2789</v>
+        <v>0.2792</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1475</v>
+        <v>0.1476</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0118</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="42">
@@ -1864,22 +1864,22 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>118.7323</v>
+        <v>118.9431</v>
       </c>
       <c r="F42" t="n">
-        <v>10.6809</v>
+        <v>10.6578</v>
       </c>
       <c r="G42" t="n">
-        <v>1.3743</v>
+        <v>1.3767</v>
       </c>
       <c r="H42" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2083</v>
+        <v>0.2087</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1103</v>
+        <v>0.1108</v>
       </c>
       <c r="K42" t="n">
         <v>0.0087</v>
@@ -1899,25 +1899,25 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>203.1646</v>
+        <v>202.3809</v>
       </c>
       <c r="F43" t="n">
-        <v>18.5612</v>
+        <v>18.4734</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2808</v>
+        <v>2.2827</v>
       </c>
       <c r="H43" t="n">
-        <v>1.314</v>
+        <v>1.312</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3517</v>
+        <v>0.3512</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1853</v>
+        <v>0.1858</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="44">
@@ -1934,25 +1934,25 @@
         <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>104.5591</v>
+        <v>108.4853</v>
       </c>
       <c r="F44" t="n">
-        <v>9.0077</v>
+        <v>9.3318</v>
       </c>
       <c r="G44" t="n">
-        <v>1.2303</v>
+        <v>1.2769</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7013</v>
+        <v>0.7177</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1849</v>
+        <v>0.188</v>
       </c>
       <c r="J44" t="n">
-        <v>0.097</v>
+        <v>0.1009</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0077</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="45">
@@ -1969,25 +1969,25 @@
         <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>223.3632</v>
+        <v>215.2961</v>
       </c>
       <c r="F45" t="n">
-        <v>20.6614</v>
+        <v>20.1959</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4661</v>
+        <v>2.4293</v>
       </c>
       <c r="H45" t="n">
-        <v>1.4651</v>
+        <v>1.4027</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3806</v>
+        <v>0.3741</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2008</v>
+        <v>0.2005</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0166</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="46">
@@ -2004,22 +2004,22 @@
         <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>213.2375</v>
+        <v>213.1148</v>
       </c>
       <c r="F46" t="n">
-        <v>19.3408</v>
+        <v>19.3569</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4281</v>
+        <v>2.4293</v>
       </c>
       <c r="H46" t="n">
-        <v>1.3898</v>
+        <v>1.3907</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3714</v>
+        <v>0.3717</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1963</v>
+        <v>0.1965</v>
       </c>
       <c r="K46" t="n">
         <v>0.0158</v>
@@ -2039,22 +2039,22 @@
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>158.0086</v>
+        <v>158.3873</v>
       </c>
       <c r="F47" t="n">
-        <v>14.211</v>
+        <v>14.2079</v>
       </c>
       <c r="G47" t="n">
-        <v>1.8323</v>
+        <v>1.8359</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0413</v>
+        <v>1.0395</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2774</v>
+        <v>0.2783</v>
       </c>
       <c r="J47" t="n">
-        <v>0.147</v>
+        <v>0.1478</v>
       </c>
       <c r="K47" t="n">
         <v>0.0116</v>
@@ -2074,25 +2074,25 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>270.6947</v>
+        <v>269.577</v>
       </c>
       <c r="F48" t="n">
-        <v>24.7179</v>
+        <v>24.5676</v>
       </c>
       <c r="G48" t="n">
-        <v>3.037</v>
+        <v>3.0349</v>
       </c>
       <c r="H48" t="n">
-        <v>1.7492</v>
+        <v>1.7487</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4681</v>
+        <v>0.4678</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2465</v>
+        <v>0.2472</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
@@ -2109,25 +2109,25 @@
         <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>139.424</v>
+        <v>143.5557</v>
       </c>
       <c r="F49" t="n">
-        <v>12.0141</v>
+        <v>12.3953</v>
       </c>
       <c r="G49" t="n">
-        <v>1.6399</v>
+        <v>1.6988</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9305</v>
+        <v>0.9554</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2458</v>
+        <v>0.2504</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1289</v>
+        <v>0.1338</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0102</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="50">
@@ -2144,25 +2144,25 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>298.5232</v>
+        <v>286.6318</v>
       </c>
       <c r="F50" t="n">
-        <v>27.2864</v>
+        <v>26.9596</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2756</v>
+        <v>3.2419</v>
       </c>
       <c r="H50" t="n">
-        <v>1.9519</v>
+        <v>1.862</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5083</v>
+        <v>0.4972</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2677</v>
+        <v>0.2665</v>
       </c>
       <c r="K50" t="n">
-        <v>0.022</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="51">
@@ -2249,22 +2249,22 @@
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>105.3678</v>
+        <v>105.0713</v>
       </c>
       <c r="F53" t="n">
-        <v>6.8729</v>
+        <v>6.8696</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7087</v>
+        <v>0.7074</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2169</v>
+        <v>0.2167</v>
       </c>
       <c r="I53" t="n">
-        <v>0.19</v>
+        <v>0.1898</v>
       </c>
       <c r="J53" t="n">
-        <v>0.049</v>
+        <v>0.0489</v>
       </c>
       <c r="K53" t="n">
         <v>0.0056</v>
@@ -2284,19 +2284,19 @@
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>92.2992</v>
+        <v>92.0321</v>
       </c>
       <c r="F54" t="n">
-        <v>5.913</v>
+        <v>5.9312</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6261</v>
+        <v>0.6276</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1889</v>
+        <v>0.1891</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1635</v>
+        <v>0.1641</v>
       </c>
       <c r="J54" t="n">
         <v>0.0431</v>
@@ -2319,22 +2319,22 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>118.3901</v>
+        <v>118.5565</v>
       </c>
       <c r="F55" t="n">
-        <v>7.8773</v>
+        <v>7.8685</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7911</v>
+        <v>0.7915</v>
       </c>
       <c r="H55" t="n">
-        <v>0.246</v>
+        <v>0.2455</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2171</v>
+        <v>0.2165</v>
       </c>
       <c r="J55" t="n">
-        <v>0.055</v>
+        <v>0.0551</v>
       </c>
       <c r="K55" t="n">
         <v>0.0064</v>
@@ -2354,25 +2354,25 @@
         <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>86.5008</v>
+        <v>85.5156</v>
       </c>
       <c r="F56" t="n">
-        <v>5.1933</v>
+        <v>5.3566</v>
       </c>
       <c r="G56" t="n">
-        <v>0.591</v>
+        <v>0.5864</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1727</v>
+        <v>0.1765</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1449</v>
+        <v>0.146</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04</v>
+        <v>0.0406</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="57">
@@ -2389,25 +2389,25 @@
         <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>128.0259</v>
+        <v>126.7991</v>
       </c>
       <c r="F57" t="n">
-        <v>8.7727</v>
+        <v>8.435</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8523</v>
+        <v>0.8315</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2676</v>
+        <v>0.268</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2427</v>
+        <v>0.2373</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0588</v>
+        <v>0.0576</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0071</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="58">
@@ -2424,22 +2424,22 @@
         <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>317.9753</v>
+        <v>317.0847</v>
       </c>
       <c r="F58" t="n">
-        <v>20.7359</v>
+        <v>20.7208</v>
       </c>
       <c r="G58" t="n">
-        <v>2.1383</v>
+        <v>2.1346</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6543</v>
+        <v>0.6537</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5731</v>
+        <v>0.5725</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1478</v>
+        <v>0.1476</v>
       </c>
       <c r="K58" t="n">
         <v>0.0168</v>
@@ -2459,25 +2459,25 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>278.8459</v>
+        <v>277.995</v>
       </c>
       <c r="F59" t="n">
-        <v>17.8426</v>
+        <v>17.8966</v>
       </c>
       <c r="G59" t="n">
-        <v>1.8899</v>
+        <v>1.8948</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5703</v>
+        <v>0.5705</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4944</v>
+        <v>0.495</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1301</v>
+        <v>0.1305</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="60">
@@ -2494,22 +2494,22 @@
         <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>357.4874</v>
+        <v>356.9807</v>
       </c>
       <c r="F60" t="n">
-        <v>23.7861</v>
+        <v>23.733</v>
       </c>
       <c r="G60" t="n">
-        <v>2.3844</v>
+        <v>2.3812</v>
       </c>
       <c r="H60" t="n">
-        <v>0.741</v>
+        <v>0.7398</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6551</v>
+        <v>0.6528</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1657</v>
+        <v>0.1658</v>
       </c>
       <c r="K60" t="n">
         <v>0.0192</v>
@@ -2529,25 +2529,25 @@
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>261.7168</v>
+        <v>259.218</v>
       </c>
       <c r="F61" t="n">
-        <v>16.4256</v>
+        <v>16.2778</v>
       </c>
       <c r="G61" t="n">
-        <v>1.7781</v>
+        <v>1.76</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5258</v>
+        <v>0.5284</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4568</v>
+        <v>0.4466</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1208</v>
+        <v>0.1229</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0133</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="62">
@@ -2564,25 +2564,25 @@
         <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>377.2423</v>
+        <v>375.6379</v>
       </c>
       <c r="F62" t="n">
-        <v>25.8393</v>
+        <v>25.4046</v>
       </c>
       <c r="G62" t="n">
-        <v>2.5491</v>
+        <v>2.512</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8056</v>
+        <v>0.786</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7296</v>
+        <v>0.6978</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1774</v>
+        <v>0.1744</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0214</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="63">
@@ -2599,22 +2599,22 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>423.343</v>
+        <v>422.156</v>
       </c>
       <c r="F63" t="n">
-        <v>27.6088</v>
+        <v>27.5905</v>
       </c>
       <c r="G63" t="n">
-        <v>2.847</v>
+        <v>2.8421</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8712</v>
+        <v>0.8704</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7631</v>
+        <v>0.7622</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1968</v>
+        <v>0.1965</v>
       </c>
       <c r="K63" t="n">
         <v>0.0224</v>
@@ -2634,22 +2634,22 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>371.2207</v>
+        <v>370.4234</v>
       </c>
       <c r="F64" t="n">
-        <v>23.7778</v>
+        <v>23.8293</v>
       </c>
       <c r="G64" t="n">
-        <v>2.5183</v>
+        <v>2.5249</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7598</v>
+        <v>0.7607</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6588</v>
+        <v>0.6592</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1734</v>
+        <v>0.1738</v>
       </c>
       <c r="K64" t="n">
         <v>0.0194</v>
@@ -2669,25 +2669,25 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>475.8226</v>
+        <v>474.9858</v>
       </c>
       <c r="F65" t="n">
-        <v>31.64</v>
+        <v>31.5774</v>
       </c>
       <c r="G65" t="n">
-        <v>3.1746</v>
+        <v>3.1706</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9869</v>
+        <v>0.9848</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8721</v>
+        <v>0.8684</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2205</v>
+        <v>0.2208</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0256</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="66">
@@ -2704,25 +2704,25 @@
         <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>349.5394</v>
+        <v>344.7336</v>
       </c>
       <c r="F66" t="n">
-        <v>21.8218</v>
+        <v>21.6344</v>
       </c>
       <c r="G66" t="n">
-        <v>2.3738</v>
+        <v>2.3464</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6996</v>
+        <v>0.705</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6103</v>
+        <v>0.5926</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1613</v>
+        <v>0.1635</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0177</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="67">
@@ -2739,25 +2739,25 @@
         <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>504.3753</v>
+        <v>502.437</v>
       </c>
       <c r="F67" t="n">
-        <v>34.5611</v>
+        <v>33.7885</v>
       </c>
       <c r="G67" t="n">
-        <v>3.4014</v>
+        <v>3.3436</v>
       </c>
       <c r="H67" t="n">
-        <v>1.0731</v>
+        <v>1.0523</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9723</v>
+        <v>0.9288</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2358</v>
+        <v>0.232</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0284</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="68">
